--- a/companies/Gitlab/Gitlab-report.xlsx
+++ b/companies/Gitlab/Gitlab-report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Company Analysis" sheetId="1" state="visible" r:id="rId2"/>
@@ -1801,14 +1801,14 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="73.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="65.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="79.55"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="1" width="8.54"/>
   </cols>
   <sheetData>
@@ -1891,17 +1891,17 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="42.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="33.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="31.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="94.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.07"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="8.53"/>
   </cols>
@@ -1926,7 +1926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="254.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="404.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="337.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="134.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="364.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="337.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="364.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="297.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="337.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="243.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="350.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>65</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="310.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>69</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="323.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>73</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="337.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>77</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="297.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>81</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="310.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>85</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>89</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="270.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>93</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="243.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>97</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="337.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>102</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="243.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>106</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="230.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>111</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>115</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>120</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="323.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>124</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="189.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>128</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="270.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>132</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="337.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>136</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="256.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>141</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="256.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>145</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>150</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="968.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>155</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="337.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>160</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="310.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>164</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="297.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>168</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="243.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>172</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="364.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>177</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="485.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>182</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="364.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>187</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="350.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>191</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="323.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>195</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="270.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>198</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="404.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>202</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="364.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>177</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="256.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>207</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="807.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>211</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="203.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>216</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="230.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>220</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>224</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="417.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>228</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="243.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>232</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="270.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>236</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="323.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>240</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="458" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>244</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="230.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>248</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>252</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>256</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="256.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>260</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="404.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>263</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="323.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>267</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>271</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="310.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>275</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="404.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>279</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="323.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>21</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="606.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>248</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="216.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="1" t="s">
         <v>253</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="606.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>248</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="323.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>21</v>
       </c>
